--- a/Daisy-xls/ResearchPages/research-leukemia.xlsx
+++ b/Daisy-xls/ResearchPages/research-leukemia.xlsx
@@ -234,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -257,6 +257,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -265,9 +280,6 @@
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -326,6 +338,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -633,317 +648,349 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="59.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="21">
+        <v>487805</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="10">
+      <c r="E2" s="2"/>
+      <c r="F2" s="9">
         <v>41948</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="21">
+        <v>836586</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16">
         <v>41924</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="21">
+        <v>797387</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>41817</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="21">
+        <v>723108</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>41710</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="21">
+        <v>715464</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>41710</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="21">
+        <v>708410</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>41691</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="21">
+        <v>564061</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="17">
+      <c r="E8" s="6"/>
+      <c r="F8" s="16">
         <v>41395</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="21">
+        <v>564059</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="19">
+      <c r="E9" s="6"/>
+      <c r="F9" s="18">
         <v>41395</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="21">
+        <v>511136</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="17">
+      <c r="E10" s="6"/>
+      <c r="F10" s="16">
         <v>41319</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="21">
+        <v>476945</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>41260</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="21">
+        <v>459625</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="17">
+      <c r="E12" s="6"/>
+      <c r="F12" s="16">
         <v>41221</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="21">
+        <v>315415</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>41067</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="21">
+        <v>15802</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>40792</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="21">
+        <v>63868</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>40585</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="21">
+        <v>14957</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>40470</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="21">
+        <v>14114</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>38503</v>
       </c>
     </row>
